--- a/data/trans_dic/Q17F_D_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R3-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07291829256677897</v>
+        <v>0.07487925163000142</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06312679219955136</v>
+        <v>0.06454095659531933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04682416481638481</v>
+        <v>0.04502504341181537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0431761521648685</v>
+        <v>0.04720117936477743</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06370675075055156</v>
+        <v>0.06594455647243228</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02263615252536379</v>
+        <v>0.02188203178131021</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1192527176851193</v>
+        <v>0.1114330438439427</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.108456233614374</v>
+        <v>0.1055469732461147</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08436332742731904</v>
+        <v>0.08816367722929155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05378775090974851</v>
+        <v>0.05441772399710661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1012212915042692</v>
+        <v>0.1061298715207146</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09624509711451591</v>
+        <v>0.09590963056058871</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.268264678968037</v>
+        <v>0.2803275419977131</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2724108544248263</v>
+        <v>0.2747544336622073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2102340379346067</v>
+        <v>0.2089031632676823</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1825865115939483</v>
+        <v>0.1779912312602338</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2380576226770045</v>
+        <v>0.2491517638857895</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1305552909073561</v>
+        <v>0.1288559628079217</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2829668224271253</v>
+        <v>0.2795466819280347</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2316109283519616</v>
+        <v>0.2387084571778355</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.211436294329642</v>
+        <v>0.2320769578056055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1601730296609011</v>
+        <v>0.1581561357940942</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2111738644053865</v>
+        <v>0.2173209697214467</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1869024356329819</v>
+        <v>0.1907220320364792</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1118538853300525</v>
+        <v>0.1142351242707753</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06839729490981161</v>
+        <v>0.06889493598223634</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06210735342061607</v>
+        <v>0.06831970127015681</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1405179917200282</v>
+        <v>0.1365182571644353</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.135850158631467</v>
+        <v>0.1354300844063866</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04376077112968015</v>
+        <v>0.04215270041094135</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09395422595688792</v>
+        <v>0.08914251915610351</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1206731967623312</v>
+        <v>0.1249957690539983</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1401642081372091</v>
+        <v>0.136574241766849</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06428569508224863</v>
+        <v>0.06248374856228577</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09277027388813551</v>
+        <v>0.09290549898834176</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1499739607930592</v>
+        <v>0.1524251322757986</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2939424659798514</v>
+        <v>0.2914294453552003</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2343780912613685</v>
+        <v>0.2514974310998713</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.203953061071341</v>
+        <v>0.1962322761016019</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3455789946054936</v>
+        <v>0.3517694266403337</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2683807520723945</v>
+        <v>0.2764497160859369</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1453880517819588</v>
+        <v>0.1461687003817946</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1979298544961745</v>
+        <v>0.1919746086709709</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2727140209124796</v>
+        <v>0.271751951504942</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2505351962794383</v>
+        <v>0.249099964545112</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1564314306531706</v>
+        <v>0.1529354258748043</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1771742247774247</v>
+        <v>0.1733890530560616</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2731809752900798</v>
+        <v>0.2829081398349015</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.07671895598042675</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.117024391447836</v>
+        <v>0.1170243914478361</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05656607039516832</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01690479677605378</v>
+        <v>0.01685957624441236</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06806821168146976</v>
+        <v>0.06932056273376221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01275751812647794</v>
+        <v>0.01157742009872979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02705020610564764</v>
+        <v>0.03313109735056088</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01973273455545712</v>
+        <v>0.0278005776300563</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03548824762137431</v>
+        <v>0.03527831809990347</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03610831556773376</v>
+        <v>0.03687736433328648</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06525602270804197</v>
+        <v>0.06391001770740731</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02921176323320422</v>
+        <v>0.02522295381926477</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05792711227031123</v>
+        <v>0.05768347877483565</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03537928793434383</v>
+        <v>0.03605470374963365</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06201876865291772</v>
+        <v>0.06427071802410497</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1457140809590615</v>
+        <v>0.1456895004874137</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2349845354076359</v>
+        <v>0.2321899525722005</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1123890433765092</v>
+        <v>0.1115602271844202</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1504966172542081</v>
+        <v>0.1554281441723767</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1114355800371602</v>
+        <v>0.1176221180174704</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1223978425962396</v>
+        <v>0.1224118912385436</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1390599295816071</v>
+        <v>0.1409839838399169</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1864388231085087</v>
+        <v>0.1934157789363536</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0978825441027408</v>
+        <v>0.1008985575675372</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1373154322334496</v>
+        <v>0.1337766316302194</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1075516956584491</v>
+        <v>0.1082460322395149</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1481487040189408</v>
+        <v>0.1465408091233595</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1590699627254654</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2567840245585246</v>
+        <v>0.2567840245585247</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1085978160137191</v>
+        <v>0.1011784464397758</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0624774670082708</v>
+        <v>0.07215980978700368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09034605208572828</v>
+        <v>0.08933226444737145</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2065925294821167</v>
+        <v>0.2008983867333399</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008686644522672643</v>
+        <v>0.007798850169781011</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0458706326609838</v>
+        <v>0.04626979851043703</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.102547799840662</v>
+        <v>0.09945517674470823</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1525286300494747</v>
+        <v>0.147865435607709</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0470786939717736</v>
+        <v>0.04605471115987883</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06864792087595967</v>
+        <v>0.06807097337302946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1142371790589388</v>
+        <v>0.111318535794667</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1939805895382402</v>
+        <v>0.1966464738278295</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3434179662097347</v>
+        <v>0.3249152581197637</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2466899714309241</v>
+        <v>0.2497845475871399</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2372457114767221</v>
+        <v>0.2388762694166816</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4311415071025974</v>
+        <v>0.4526083824796494</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08477098972180649</v>
+        <v>0.07762937962476048</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1578003432132238</v>
+        <v>0.1590793653514811</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2413236152430588</v>
+        <v>0.2376272541443189</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2941610746028972</v>
+        <v>0.2867889298954189</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1288019716622123</v>
+        <v>0.1314560394984698</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1622186828831561</v>
+        <v>0.1682437678721491</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2163798628115779</v>
+        <v>0.2158253149427483</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.329265857367764</v>
+        <v>0.3235989922553397</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04148864133240649</v>
+        <v>0.04091836629109714</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01989928903768473</v>
+        <v>0.01981654037024459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03010158193157654</v>
+        <v>0.03015400593817124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1159348379590648</v>
+        <v>0.1171911124615541</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0809475111765864</v>
+        <v>0.08195600364291605</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07745258106310081</v>
+        <v>0.07975994321013889</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0208859338819243</v>
+        <v>0.02051936317355059</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1116906955516382</v>
+        <v>0.1133545054976385</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.081260225950542</v>
+        <v>0.08236608172455301</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0692978260008285</v>
+        <v>0.07028518668078168</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03827446373747755</v>
+        <v>0.04729429799888609</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1392253732860579</v>
+        <v>0.1460809007206259</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2354380050416233</v>
+        <v>0.2102204357208089</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1671720711679648</v>
+        <v>0.1563721965755779</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3203680434146043</v>
+        <v>0.3255225821327781</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4545853631817859</v>
+        <v>0.4320023597595548</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2876905453101527</v>
+        <v>0.3148229409681962</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2215837145447228</v>
+        <v>0.2289097180121102</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2020471008159955</v>
+        <v>0.1940951040405268</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3115161729327923</v>
+        <v>0.3131841564436186</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2263381339822665</v>
+        <v>0.2308768448618241</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1800957981613855</v>
+        <v>0.1824040331252883</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1880110769453079</v>
+        <v>0.2027831286558687</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3171233494562022</v>
+        <v>0.3095737263233374</v>
       </c>
     </row>
     <row r="19">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06403142196447188</v>
+        <v>0.06745778330168062</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01854059573075751</v>
+        <v>0.01843653116312187</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05206180581470721</v>
+        <v>0.04713414616621409</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03714367660272728</v>
+        <v>0.03591847158876869</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05863132646861359</v>
+        <v>0.05825778647560773</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03494967020371692</v>
+        <v>0.03737680151134356</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04892259422640458</v>
+        <v>0.04802460409014849</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02788914153125692</v>
+        <v>0.0325310482319055</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0768168300245594</v>
+        <v>0.07614472516343368</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03698524231926782</v>
+        <v>0.03901405969797918</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06156314501779098</v>
+        <v>0.06450690099492037</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1346478531376796</v>
+        <v>0.1349194982761642</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2143692854413034</v>
+        <v>0.2228396794112574</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1151002955061364</v>
+        <v>0.1177478450630912</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1962690083323863</v>
+        <v>0.1988604652310035</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1595855534744465</v>
+        <v>0.1599978588774886</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1776829065447354</v>
+        <v>0.1748285368718016</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1379308895462527</v>
+        <v>0.1365299329894318</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.183133945452147</v>
+        <v>0.1817121843908993</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.122582267835016</v>
+        <v>0.1268813409074218</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1711196720092441</v>
+        <v>0.1681922927056463</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1069616361221886</v>
+        <v>0.10760629643758</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1530163117923956</v>
+        <v>0.1624196636043856</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.1865246885575309</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2408075791823818</v>
+        <v>0.2408075791823819</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.10559541905741</v>
@@ -1513,7 +1513,7 @@
         <v>0.1749513400166395</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2563403533535715</v>
+        <v>0.2563403533535714</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08393038954459293</v>
+        <v>0.08614809576707604</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1041967500488457</v>
+        <v>0.1017369770505621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1173244822623798</v>
+        <v>0.1260801798709306</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1737534586993799</v>
+        <v>0.177048561270831</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06785217245034426</v>
+        <v>0.06514039602910685</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1036096389164333</v>
+        <v>0.1070025829079207</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1139724683084691</v>
+        <v>0.1136635800869839</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2116180622857573</v>
+        <v>0.214282482638731</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.08829354894734583</v>
+        <v>0.0843590693059095</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.116783427415096</v>
+        <v>0.114156159611625</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1368236937830276</v>
+        <v>0.1336511926110855</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2127391264059436</v>
+        <v>0.2152356846839469</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1994984852063951</v>
+        <v>0.1986272439571191</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2186421850652638</v>
+        <v>0.2136050415766209</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2626225679297741</v>
+        <v>0.2669967256947203</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3176925358648323</v>
+        <v>0.3122851624151082</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1557112008810436</v>
+        <v>0.1611163861409041</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2066384430323053</v>
+        <v>0.2089154881822174</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2315534011646501</v>
+        <v>0.2303102211410487</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3223899726290312</v>
+        <v>0.3210062226063994</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1563599636141973</v>
+        <v>0.1529335437402747</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1942994653201145</v>
+        <v>0.1915477144358023</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2258359139272168</v>
+        <v>0.2239742354718535</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3012412158763731</v>
+        <v>0.3031451152779376</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.07303383326708965</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.1423322872753321</v>
+        <v>0.142332287275332</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.09927059551183254</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05322820161698869</v>
+        <v>0.05445398651256416</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05470847708705537</v>
+        <v>0.05537724894343653</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04300470898079564</v>
+        <v>0.04106678976350527</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09319065207439733</v>
+        <v>0.08958481484998787</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05765613245030628</v>
+        <v>0.06492592868266769</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06194437751514097</v>
+        <v>0.06547346397750223</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06624114610599255</v>
+        <v>0.06442150090860604</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1724912400062851</v>
+        <v>0.1663960680599812</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0700572903565248</v>
+        <v>0.06821576755978362</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.07274405537006359</v>
+        <v>0.0685790635672545</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.06302762976595991</v>
+        <v>0.06364544925444644</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1485742323495321</v>
+        <v>0.1520597012831309</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1513601033542176</v>
+        <v>0.1528247700034805</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1618604099823652</v>
+        <v>0.1615703127527365</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1163153509332409</v>
+        <v>0.1133588267781892</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2048643317704112</v>
+        <v>0.2022938818023712</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1459803701820965</v>
+        <v>0.1464929675646348</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1506347771558824</v>
+        <v>0.1488715537179413</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1494952210775646</v>
+        <v>0.1543538819939931</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.266687870153658</v>
+        <v>0.2641149467712812</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1377450816812606</v>
+        <v>0.1341144457389292</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1359079591623754</v>
+        <v>0.1350240994194344</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1197846946977972</v>
+        <v>0.1206006262261521</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2238797990779184</v>
+        <v>0.2229244251518326</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.1181716166053353</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.196195660747419</v>
+        <v>0.1961956607474191</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0970968480281747</v>
+        <v>0.09735793305327092</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1021535877763712</v>
+        <v>0.1016357524042215</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08802858296415721</v>
+        <v>0.08692838972958122</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.15463216596573</v>
+        <v>0.1552562462081707</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.08810146126791168</v>
+        <v>0.08853856725266156</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.08831630934255731</v>
+        <v>0.08691218235844062</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1061683703414005</v>
+        <v>0.1065449827404733</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1806487709366804</v>
+        <v>0.1807081184303071</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.09880123107209467</v>
+        <v>0.09691758713030704</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.09886174121823742</v>
+        <v>0.09859885352307564</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1031775363106725</v>
+        <v>0.1046047621046136</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1786731595291536</v>
+        <v>0.1781563593796125</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1537540179710359</v>
+        <v>0.1501659455179252</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1548517019268081</v>
+        <v>0.1532070170970906</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1327450841154197</v>
+        <v>0.1336132769522018</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2178308564900694</v>
+        <v>0.2191661984023104</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1286334637154148</v>
+        <v>0.1280283891211674</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1262444234353654</v>
+        <v>0.1246433164143768</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1464981455830135</v>
+        <v>0.1472796919456691</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2295259425350427</v>
+        <v>0.2302431489835393</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1302028340538328</v>
+        <v>0.1302182977877255</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1291724614268586</v>
+        <v>0.1296386238524817</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1343456727349309</v>
+        <v>0.1354318712570747</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2155452650102627</v>
+        <v>0.2156033290308597</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3468</v>
+        <v>3561</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3594</v>
+        <v>3675</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3172</v>
+        <v>3051</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2751</v>
+        <v>3007</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3948</v>
+        <v>4086</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2051</v>
+        <v>1983</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11174</v>
+        <v>10441</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8616</v>
+        <v>8385</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9240</v>
+        <v>9656</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>7937</v>
+        <v>8030</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>16342</v>
+        <v>17135</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>13777</v>
+        <v>13729</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12759</v>
+        <v>13333</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15509</v>
+        <v>15643</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14244</v>
+        <v>14154</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11632</v>
+        <v>11339</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>14751</v>
+        <v>15439</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11831</v>
+        <v>11677</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26514</v>
+        <v>26194</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18400</v>
+        <v>18964</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23158</v>
+        <v>25419</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>23634</v>
+        <v>23337</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>34095</v>
+        <v>35087</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>26755</v>
+        <v>27301</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9656</v>
+        <v>9861</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6059</v>
+        <v>6103</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6436</v>
+        <v>7080</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10914</v>
+        <v>10603</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17966</v>
+        <v>17911</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5954</v>
+        <v>5736</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16444</v>
+        <v>15602</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10964</v>
+        <v>11356</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30636</v>
+        <v>29852</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>14442</v>
+        <v>14037</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>25851</v>
+        <v>25888</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>25274</v>
+        <v>25687</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25374</v>
+        <v>25157</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20763</v>
+        <v>22280</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21137</v>
+        <v>20337</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26841</v>
+        <v>27322</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>35494</v>
+        <v>36561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19782</v>
+        <v>19888</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34641</v>
+        <v>33599</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24777</v>
+        <v>24690</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>54761</v>
+        <v>54447</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>35143</v>
+        <v>34357</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>49370</v>
+        <v>48316</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>46037</v>
+        <v>47677</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5812</v>
+        <v>5919</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>880</v>
+        <v>798</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1694</v>
+        <v>2075</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1946</v>
+        <v>2742</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5009</v>
+        <v>4979</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3587</v>
+        <v>3663</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4693</v>
+        <v>4596</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4474</v>
+        <v>3863</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13122</v>
+        <v>13067</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5955</v>
+        <v>6068</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8344</v>
+        <v>8647</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7948</v>
+        <v>7946</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20066</v>
+        <v>19827</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7751</v>
+        <v>7694</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9425</v>
+        <v>9734</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10991</v>
+        <v>11601</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17275</v>
+        <v>17277</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13814</v>
+        <v>14005</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13407</v>
+        <v>13909</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14993</v>
+        <v>15455</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>31106</v>
+        <v>30304</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18102</v>
+        <v>18219</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>19932</v>
+        <v>19716</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5189</v>
+        <v>4834</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4239</v>
+        <v>4896</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7676</v>
+        <v>7590</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16078</v>
+        <v>15635</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>972</v>
+        <v>873</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5167</v>
+        <v>5212</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13519</v>
+        <v>13112</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16267</v>
+        <v>15770</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7516</v>
+        <v>7353</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>12391</v>
+        <v>12287</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24767</v>
+        <v>24134</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>35785</v>
+        <v>36277</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16408</v>
+        <v>15524</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16736</v>
+        <v>16946</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20158</v>
+        <v>20297</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>33554</v>
+        <v>35225</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9484</v>
+        <v>8685</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17777</v>
+        <v>17921</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31815</v>
+        <v>31327</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31372</v>
+        <v>30586</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20564</v>
+        <v>20988</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>29280</v>
+        <v>30367</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>46911</v>
+        <v>46791</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>60742</v>
+        <v>59696</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1633</v>
+        <v>1611</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2260</v>
+        <v>2284</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5132</v>
+        <v>5196</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6974</v>
+        <v>7182</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>998</v>
+        <v>981</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3203</v>
+        <v>3250</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8350</v>
+        <v>8464</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>9775</v>
+        <v>9914</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2882</v>
+        <v>3561</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6706</v>
+        <v>7036</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9267</v>
+        <v>8274</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8527</v>
+        <v>7976</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8812</v>
+        <v>8954</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8860</v>
+        <v>8420</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18239</v>
+        <v>19959</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>19952</v>
+        <v>20612</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9657</v>
+        <v>9277</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8933</v>
+        <v>8981</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>23258</v>
+        <v>23725</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>25403</v>
+        <v>25728</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>14157</v>
+        <v>15270</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>15274</v>
+        <v>14911</v>
       </c>
     </row>
     <row r="24">
@@ -3051,37 +3051,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4974</v>
+        <v>5240</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1965</v>
+        <v>1954</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2663</v>
+        <v>2411</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2959</v>
+        <v>2861</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6277</v>
+        <v>6237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4524</v>
+        <v>4838</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2919</v>
+        <v>2866</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3501</v>
+        <v>4084</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>14191</v>
+        <v>14067</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8707</v>
+        <v>9184</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>6823</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6178</v>
+        <v>6191</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16653</v>
+        <v>17311</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12198</v>
+        <v>12479</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10039</v>
+        <v>10171</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>12712</v>
+        <v>12745</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>19023</v>
+        <v>18717</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17853</v>
+        <v>17672</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10929</v>
+        <v>10844</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>15389</v>
+        <v>15929</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>31613</v>
+        <v>31072</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>25180</v>
+        <v>25332</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>16958</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>11534</v>
+        <v>11838</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>17092</v>
+        <v>16688</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17247</v>
+        <v>18534</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>25201</v>
+        <v>25679</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>13827</v>
+        <v>13275</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>22372</v>
+        <v>23105</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>19275</v>
+        <v>19223</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>46708</v>
+        <v>47296</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>30126</v>
+        <v>28784</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>44373</v>
+        <v>43375</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>43253</v>
+        <v>42250</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>77811</v>
+        <v>78724</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>27415</v>
+        <v>27295</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>35865</v>
+        <v>35038</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>38606</v>
+        <v>39249</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>46077</v>
+        <v>45293</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>31732</v>
+        <v>32833</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>44619</v>
+        <v>45111</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>39160</v>
+        <v>38950</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>71157</v>
+        <v>70852</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>53351</v>
+        <v>52182</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>73826</v>
+        <v>72781</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>71391</v>
+        <v>70803</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>110181</v>
+        <v>110877</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>7783</v>
+        <v>7962</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>8452</v>
+        <v>8555</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>9050</v>
+        <v>8643</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>14370</v>
+        <v>13814</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>12495</v>
+        <v>14070</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>13293</v>
+        <v>14050</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>17282</v>
+        <v>16807</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>37193</v>
+        <v>35878</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>25426</v>
+        <v>24757</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>26849</v>
+        <v>25312</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>29708</v>
+        <v>29999</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>54946</v>
+        <v>56235</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>22131</v>
+        <v>22345</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>25006</v>
+        <v>24962</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>24479</v>
+        <v>23856</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>31590</v>
+        <v>31194</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>31636</v>
+        <v>31747</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>32325</v>
+        <v>31947</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>39002</v>
+        <v>40270</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>57504</v>
+        <v>56949</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>49992</v>
+        <v>48674</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>50162</v>
+        <v>49836</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>56460</v>
+        <v>56845</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>82795</v>
+        <v>82442</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>58752</v>
+        <v>58910</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>76204</v>
+        <v>75818</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>71854</v>
+        <v>70956</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>100774</v>
+        <v>101181</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>85307</v>
+        <v>85730</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>97864</v>
+        <v>96308</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>117543</v>
+        <v>117960</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>157805</v>
+        <v>157857</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>155451</v>
+        <v>152487</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>183297</v>
+        <v>182810</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>198451</v>
+        <v>201196</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>272521</v>
+        <v>271733</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>93034</v>
+        <v>90863</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>115515</v>
+        <v>114289</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>108354</v>
+        <v>109063</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>141961</v>
+        <v>142831</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>124554</v>
+        <v>123968</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>139892</v>
+        <v>138118</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>162193</v>
+        <v>163059</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>200502</v>
+        <v>201128</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>204857</v>
+        <v>204881</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>239496</v>
+        <v>240360</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>258400</v>
+        <v>260489</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>328761</v>
+        <v>328849</v>
       </c>
     </row>
     <row r="40">
